--- a/APM files/135583412/135583412 EXPORT 1 RoomType&RatePlan template.xlsx
+++ b/APM files/135583412/135583412 EXPORT 1 RoomType&RatePlan template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135583412/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12BC0B-D147-5B42-920C-88F0F8DDD8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75666F64-F983-014C-A628-1F2B0124BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +472,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -509,12 +515,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,7 +827,7 @@
   <dimension ref="A1:EL60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1253,300 +1260,222 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>98496071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>98496071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>99106466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>99106468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>99545727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>99545732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>99545740</v>
-      </c>
-    </row>
-    <row r="9" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>99545758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>99545764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>99545774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>99453380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>99545799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>99545802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>99545812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:142" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>99545816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>99545817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>99545823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>99545833</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>99545838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>98496064</v>
+    <row r="2" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>99205032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>99204990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>99453009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>99453008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>99453153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>99453410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>99453413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>99453427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>99453431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>99205699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>99206363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>99453460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>99453461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>99453475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>99453517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>99453521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>98487676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>98487708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>98853718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>98853894</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>99106471</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>99106476</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>98496067</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>99545846</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>99545852</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>99545880</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>99545883</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>99545886</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>99545934</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>99545920</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>99545924</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>99545956</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>99545976</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>99545968</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>99453517</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>99545954</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>99545950</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>99453521</v>
-      </c>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>99545946</v>
-      </c>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>98496084</v>
-      </c>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>98487676</v>
-      </c>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>99939503</v>
-      </c>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>99939506</v>
-      </c>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>99939497</v>
-      </c>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>99939498</v>
-      </c>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>99939499</v>
-      </c>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>99939495</v>
-      </c>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>99939496</v>
-      </c>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>99939493</v>
-      </c>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>98496076</v>
-      </c>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>99939504</v>
-      </c>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>99939501</v>
-      </c>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>99939502</v>
-      </c>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>98496079</v>
-      </c>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>98487708</v>
-      </c>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>98496107</v>
-      </c>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>99939494</v>
-      </c>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>98853718</v>
-      </c>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>98853894</v>
-      </c>
+      <c r="A60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/APM files/135583412/135583412 EXPORT 1 RoomType&RatePlan template.xlsx
+++ b/APM files/135583412/135583412 EXPORT 1 RoomType&RatePlan template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135583412/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75666F64-F983-014C-A628-1F2B0124BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214F353A-3BA8-F147-81D1-B2F30098D503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,7 @@
   <dimension ref="A1:EL60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1262,103 +1262,77 @@
     </row>
     <row r="2" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>99205032</v>
+        <v>98496070</v>
       </c>
     </row>
     <row r="3" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>99204990</v>
+        <v>99545962</v>
       </c>
     </row>
     <row r="4" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>99453009</v>
+        <v>99545949</v>
       </c>
     </row>
     <row r="5" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>99453008</v>
+        <v>98496087</v>
       </c>
     </row>
     <row r="6" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>99453153</v>
+        <v>98496088</v>
       </c>
     </row>
     <row r="7" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>99453410</v>
+        <v>99939491</v>
       </c>
     </row>
     <row r="8" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>99453413</v>
+        <v>99939492</v>
       </c>
     </row>
     <row r="9" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>99453427</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>99453431</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>99205699</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>99206363</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>99453460</v>
-      </c>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>99453461</v>
-      </c>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>99453475</v>
-      </c>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>99453517</v>
-      </c>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>99453521</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>98487676</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>98487708</v>
-      </c>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>98853718</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>98853894</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
